--- a/data/trans_orig/P6603-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>100782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85830</v>
+        <v>87093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113106</v>
+        <v>114848</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5707730114360251</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4860933118254455</v>
+        <v>0.4932474294368563</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6405684713709645</v>
+        <v>0.6504368655162713</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>122</v>
@@ -765,19 +765,19 @@
         <v>120094</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109965</v>
+        <v>109283</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127483</v>
+        <v>127015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8478934714572195</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7763801633103027</v>
+        <v>0.771567032413308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9000601690099898</v>
+        <v>0.8967567738623774</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>219</v>
@@ -786,19 +786,19 @@
         <v>220876</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>202279</v>
+        <v>204659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>236264</v>
+        <v>237320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.694122240443876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6356783785142044</v>
+        <v>0.6431596798003361</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7424800362791265</v>
+        <v>0.7457994121909501</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>37553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27842</v>
+        <v>27493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49856</v>
+        <v>50538</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.212678391212652</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1576806098485775</v>
+        <v>0.1557036653357139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2823555729949798</v>
+        <v>0.2862202613657496</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -836,19 +836,19 @@
         <v>16365</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9929</v>
+        <v>10002</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26042</v>
+        <v>26224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1155392488811689</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07010349498779032</v>
+        <v>0.07061684720881005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1838623216698582</v>
+        <v>0.1851470378555046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -857,19 +857,19 @@
         <v>53918</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41165</v>
+        <v>40275</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69021</v>
+        <v>67536</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1694407381279395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1293652349037779</v>
+        <v>0.1265688080620436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2169045195173242</v>
+        <v>0.2122377427722626</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>31098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22473</v>
+        <v>21873</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42880</v>
+        <v>42645</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.176123617613724</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1272750883746467</v>
+        <v>0.1238738307769336</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.242847851726869</v>
+        <v>0.2415189147447451</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -907,19 +907,19 @@
         <v>5179</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11942</v>
+        <v>12889</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03656727966161169</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01311777184977664</v>
+        <v>0.01314111439292837</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08431355402671512</v>
+        <v>0.09099766774854576</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -928,19 +928,19 @@
         <v>36278</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26485</v>
+        <v>25845</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50699</v>
+        <v>49241</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1140056249969551</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08323114941375767</v>
+        <v>0.08121961824671356</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1593267374797351</v>
+        <v>0.1547444637090737</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>7138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3105</v>
+        <v>2900</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14694</v>
+        <v>13956</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04042497973759887</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01758732974275604</v>
+        <v>0.01642180287700974</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08321630315274524</v>
+        <v>0.07903791298734288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>7138</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2942</v>
+        <v>2690</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15161</v>
+        <v>13489</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02243139643122931</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009245726078123118</v>
+        <v>0.008453068809670122</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04764610011387529</v>
+        <v>0.04239072413845097</v>
       </c>
     </row>
     <row r="8">
@@ -1095,19 +1095,19 @@
         <v>399420</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>376622</v>
+        <v>374731</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>418857</v>
+        <v>420112</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7185915342291198</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6775751899344413</v>
+        <v>0.6741730025660702</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7535592113451463</v>
+        <v>0.7558177472856451</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>283</v>
@@ -1116,19 +1116,19 @@
         <v>298609</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>285361</v>
+        <v>284989</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>310428</v>
+        <v>309738</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8744629384914286</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8356662662879841</v>
+        <v>0.834578195762971</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9090737449802943</v>
+        <v>0.9070543589546639</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>663</v>
@@ -1137,19 +1137,19 @@
         <v>698030</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>671788</v>
+        <v>674651</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>723285</v>
+        <v>724181</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.777909047148604</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7486635295116169</v>
+        <v>0.7518547213061556</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8060533392644744</v>
+        <v>0.8070524823450786</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>76080</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61359</v>
+        <v>61434</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94667</v>
+        <v>96208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1368738248707713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1103897311519856</v>
+        <v>0.1105247498098727</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1703148283463321</v>
+        <v>0.1730855414865569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1187,19 +1187,19 @@
         <v>28431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19084</v>
+        <v>18768</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40170</v>
+        <v>40195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08325775731362808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05588784415168456</v>
+        <v>0.05496049845658736</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1176356857667537</v>
+        <v>0.1177106913070406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -1208,19 +1208,19 @@
         <v>104510</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86017</v>
+        <v>84503</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127092</v>
+        <v>124242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1164700067678647</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09585981330972461</v>
+        <v>0.0941725669285899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.141635968532365</v>
+        <v>0.1384600238278594</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>59115</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44951</v>
+        <v>46308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75665</v>
+        <v>77782</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.10635269961656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08087001353305945</v>
+        <v>0.08331252289229453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1361278649909758</v>
+        <v>0.1399364756499741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1258,19 +1258,19 @@
         <v>9307</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4272</v>
+        <v>4143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17232</v>
+        <v>16089</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02725519200694774</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01251071539531323</v>
+        <v>0.01213218735263081</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05046257866098883</v>
+        <v>0.04711685791301559</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -1279,19 +1279,19 @@
         <v>68422</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53967</v>
+        <v>53079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87277</v>
+        <v>85975</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07625181323693617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06014257087123809</v>
+        <v>0.05915294437039765</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09726400953454011</v>
+        <v>0.09581315740259251</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>21223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13354</v>
+        <v>12842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34240</v>
+        <v>31655</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03818194128354888</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02402552642194642</v>
+        <v>0.02310299016114556</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06160097553211132</v>
+        <v>0.05695071441558119</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1329,19 +1329,19 @@
         <v>5130</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1952</v>
+        <v>2022</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11291</v>
+        <v>11221</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01502411218799559</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005716610764684897</v>
+        <v>0.005920843941122167</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03306473649230167</v>
+        <v>0.03285928636436729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1350,19 +1350,19 @@
         <v>26353</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17883</v>
+        <v>17313</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40304</v>
+        <v>38657</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02936913284659523</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01992988518916537</v>
+        <v>0.01929394368698905</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04491620500770391</v>
+        <v>0.04308029735075007</v>
       </c>
     </row>
     <row r="13">
@@ -1454,19 +1454,19 @@
         <v>395145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>372481</v>
+        <v>373278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>417881</v>
+        <v>416010</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.69844536874638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6583853348537639</v>
+        <v>0.6597950917188269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7386332533865761</v>
+        <v>0.7353261051667491</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>235</v>
@@ -1475,19 +1475,19 @@
         <v>249358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>235655</v>
+        <v>233255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>262185</v>
+        <v>262074</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8187836028455118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7737897631443958</v>
+        <v>0.7659065099509477</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8609011412508353</v>
+        <v>0.8605366767038684</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>617</v>
@@ -1496,19 +1496,19 @@
         <v>644503</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>617572</v>
+        <v>616534</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>668438</v>
+        <v>668053</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7405559079680453</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7096117405317927</v>
+        <v>0.7084186944908851</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7680586602384356</v>
+        <v>0.7676162453024027</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>94465</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>77789</v>
+        <v>76249</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>114348</v>
+        <v>112376</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.166973707395694</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1374978499439891</v>
+        <v>0.1347760501134961</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2021186448940134</v>
+        <v>0.1986322055136435</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>34</v>
@@ -1546,19 +1546,19 @@
         <v>34875</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25293</v>
+        <v>25484</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46895</v>
+        <v>48392</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1145139404912649</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0830514924040419</v>
+        <v>0.0836782324236192</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1539843401861808</v>
+        <v>0.158897111794348</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>126</v>
@@ -1567,19 +1567,19 @@
         <v>129340</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>110070</v>
+        <v>109164</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>150525</v>
+        <v>152813</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1486162078999928</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1264736419187035</v>
+        <v>0.1254330369419081</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1729583795449132</v>
+        <v>0.1755869736800291</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>55310</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42883</v>
+        <v>42392</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72020</v>
+        <v>72075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09776375720287107</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07579811661069272</v>
+        <v>0.07493120995513083</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1273007002893494</v>
+        <v>0.1273976724278012</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1617,19 +1617,19 @@
         <v>14602</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8326</v>
+        <v>8004</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24222</v>
+        <v>23172</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04794647406822385</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02733948873700359</v>
+        <v>0.02628215164834332</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07953371433652408</v>
+        <v>0.07608525930067375</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1638,19 +1638,19 @@
         <v>69912</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55609</v>
+        <v>54320</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88492</v>
+        <v>89799</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0803309548099905</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06389675916373563</v>
+        <v>0.06241543089656124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1016809039705248</v>
+        <v>0.1031817354469401</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>20829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12477</v>
+        <v>12377</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31878</v>
+        <v>32602</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.036817166655055</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02205363227883887</v>
+        <v>0.02187778390533949</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05634653361973475</v>
+        <v>0.05762591896577608</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1688,19 +1688,19 @@
         <v>5712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14130</v>
+        <v>13372</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01875598259499943</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006627633551564737</v>
+        <v>0.006598596629637955</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04639648927861155</v>
+        <v>0.04390902245804088</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1709,19 +1709,19 @@
         <v>26541</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17153</v>
+        <v>16489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38729</v>
+        <v>37884</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0304969293219714</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01970954976145931</v>
+        <v>0.01894594134354822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04450091988999819</v>
+        <v>0.04353034516393321</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>301535</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>282369</v>
+        <v>279434</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>320475</v>
+        <v>320215</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6910398211265362</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6471153772775199</v>
+        <v>0.640389662621912</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.734445621315659</v>
+        <v>0.733848369816936</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>135</v>
@@ -1834,19 +1834,19 @@
         <v>141879</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132014</v>
+        <v>130792</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>150540</v>
+        <v>150796</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8405127014778494</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7820700605326086</v>
+        <v>0.7748283105931348</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8918193236114891</v>
+        <v>0.8933350577599521</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>417</v>
@@ -1855,19 +1855,19 @@
         <v>443415</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>417758</v>
+        <v>420875</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>464636</v>
+        <v>464108</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7327338606662744</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6903362180021243</v>
+        <v>0.6954870302891361</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7678009550561626</v>
+        <v>0.7669280265376976</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>78181</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62948</v>
+        <v>62736</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96620</v>
+        <v>98215</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1791708781942035</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1442594701439532</v>
+        <v>0.1437737459388311</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2214268929580303</v>
+        <v>0.2250832524695975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1905,19 +1905,19 @@
         <v>14546</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8480</v>
+        <v>8126</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23257</v>
+        <v>23240</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08617360104774244</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05023959259309852</v>
+        <v>0.04814101156314472</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1377793914921498</v>
+        <v>0.1376743423120467</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -1926,19 +1926,19 @@
         <v>92728</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76358</v>
+        <v>75179</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>112396</v>
+        <v>111926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1532301714832655</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1261798017012235</v>
+        <v>0.124232151331633</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1857322372523564</v>
+        <v>0.1849552460069999</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>40638</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29753</v>
+        <v>28693</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53475</v>
+        <v>52864</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09313149622845565</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06818614382202555</v>
+        <v>0.06575784438070802</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1225518402339954</v>
+        <v>0.1211507994699346</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1976,19 +1976,19 @@
         <v>10217</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5364</v>
+        <v>5011</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18180</v>
+        <v>18303</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06052459665446053</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03177438879545503</v>
+        <v>0.02968407574176505</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1077018644076677</v>
+        <v>0.1084265741497211</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>50</v>
@@ -1997,19 +1997,19 @@
         <v>50855</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38559</v>
+        <v>38599</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>65452</v>
+        <v>66556</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08403611145423374</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06371733407456281</v>
+        <v>0.06378455236586471</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.108157547658594</v>
+        <v>0.1099817589012854</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>15996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9520</v>
+        <v>9194</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26705</v>
+        <v>26216</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03665780445080459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02181725837115563</v>
+        <v>0.0210712311935031</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06120125565420731</v>
+        <v>0.0600808482441807</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6451</v>
+        <v>7075</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0127891008199476</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03821741051873033</v>
+        <v>0.04191518311765016</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2068,19 +2068,19 @@
         <v>18154</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11649</v>
+        <v>11014</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29241</v>
+        <v>29223</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02999985639622626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.019249660182984</v>
+        <v>0.01819963710771534</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04831951087164923</v>
+        <v>0.04828963032439815</v>
       </c>
     </row>
     <row r="23">
@@ -2172,19 +2172,19 @@
         <v>97780</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>85221</v>
+        <v>85687</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>109975</v>
+        <v>110315</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5985266904352389</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5216496492580057</v>
+        <v>0.524505325467138</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.673173230348614</v>
+        <v>0.6752549152032642</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -2193,19 +2193,19 @@
         <v>54227</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47672</v>
+        <v>47236</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>59180</v>
+        <v>59337</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8435465437027957</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7415818908232061</v>
+        <v>0.7348043390629283</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9205967485089965</v>
+        <v>0.9230441074833616</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>152</v>
@@ -2214,19 +2214,19 @@
         <v>152006</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>136618</v>
+        <v>137986</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>165421</v>
+        <v>165266</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6677149780392239</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6001224748455199</v>
+        <v>0.6061316805578577</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7266408314485782</v>
+        <v>0.7259641693254738</v>
       </c>
     </row>
     <row r="25">
@@ -2243,19 +2243,19 @@
         <v>31792</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22826</v>
+        <v>22708</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44780</v>
+        <v>42226</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1946048943342156</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1397243620017241</v>
+        <v>0.1390007933525031</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2741048950740749</v>
+        <v>0.2584742202620541</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2264,19 +2264,19 @@
         <v>4029</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9419</v>
+        <v>10215</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06267218509958472</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01585965086083728</v>
+        <v>0.01558256745003772</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1465253468202763</v>
+        <v>0.1589003017706781</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -2285,19 +2285,19 @@
         <v>35821</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26256</v>
+        <v>26458</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47670</v>
+        <v>47208</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1573499612781144</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1153361402194303</v>
+        <v>0.1162202208640696</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2094014743461349</v>
+        <v>0.2073715237175672</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>21191</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14126</v>
+        <v>13512</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30514</v>
+        <v>31115</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1297137278976808</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08646601252095248</v>
+        <v>0.08270984157971153</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1867812912229429</v>
+        <v>0.190461459899935</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2335,19 +2335,19 @@
         <v>5016</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1933</v>
+        <v>1896</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11206</v>
+        <v>11084</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07802359550001507</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03006456408156438</v>
+        <v>0.0294943840645897</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1743239335087378</v>
+        <v>0.1724299599768158</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -2356,19 +2356,19 @@
         <v>26207</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17825</v>
+        <v>17427</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36783</v>
+        <v>36786</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.115117556612277</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07829784046885185</v>
+        <v>0.07655290225531303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1615763871198747</v>
+        <v>0.1615889391049334</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>12605</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7539</v>
+        <v>7546</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20723</v>
+        <v>20732</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07715468733286483</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04614746313451167</v>
+        <v>0.0461877224151872</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1268483696989315</v>
+        <v>0.1269040404308284</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5332</v>
+        <v>5865</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0157576756976045</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08293751214733999</v>
+        <v>0.09123418273420904</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>14</v>
@@ -2427,19 +2427,19 @@
         <v>13618</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>7946</v>
+        <v>8255</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>21920</v>
+        <v>22116</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05981750407038478</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03490297518900531</v>
+        <v>0.03626346387682615</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09628796626577972</v>
+        <v>0.09714946211114114</v>
       </c>
     </row>
     <row r="28">
@@ -2531,19 +2531,19 @@
         <v>1294663</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1251036</v>
+        <v>1253429</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1336746</v>
+        <v>1335984</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6821639734016964</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6591767289643963</v>
+        <v>0.660437630221733</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7043377339383474</v>
+        <v>0.7039365099214628</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>827</v>
@@ -2552,19 +2552,19 @@
         <v>864167</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>838233</v>
+        <v>839348</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>884585</v>
+        <v>884422</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8466024851142221</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8211955966506009</v>
+        <v>0.8222876697492165</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8666050771469627</v>
+        <v>0.8664459262504839</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2068</v>
@@ -2573,19 +2573,19 @@
         <v>2158830</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2110084</v>
+        <v>2111130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2206172</v>
+        <v>2206306</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7396740167751525</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7229724877558393</v>
+        <v>0.7233309357035534</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7558948494785287</v>
+        <v>0.7559407784010737</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>318071</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>286830</v>
+        <v>286435</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>356892</v>
+        <v>352192</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1675931991034468</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1511320700654016</v>
+        <v>0.1509241442475922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1880478642052952</v>
+        <v>0.185571662612256</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>94</v>
@@ -2623,19 +2623,19 @@
         <v>98245</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>81513</v>
+        <v>81044</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>121672</v>
+        <v>117151</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09624837671489031</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07985596084748335</v>
+        <v>0.0793963101366785</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1191985973678507</v>
+        <v>0.1147695152845639</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>394</v>
@@ -2644,19 +2644,19 @@
         <v>416316</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>381267</v>
+        <v>379599</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>458760</v>
+        <v>456418</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.142641356695566</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1306323542737614</v>
+        <v>0.1300610585094046</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.157183826623437</v>
+        <v>0.1563813466339296</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>207352</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>181710</v>
+        <v>178770</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>235356</v>
+        <v>233204</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1092547183952473</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09574379602065525</v>
+        <v>0.09419472108618507</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1240099746479336</v>
+        <v>0.1228763814736307</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>42</v>
@@ -2694,19 +2694,19 @@
         <v>44321</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>31859</v>
+        <v>32538</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>59273</v>
+        <v>59083</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04341973838716148</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03121127770362351</v>
+        <v>0.03187650811645965</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05806802007061768</v>
+        <v>0.05788200190408468</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>246</v>
@@ -2715,19 +2715,19 @@
         <v>251672</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>222916</v>
+        <v>221421</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>283073</v>
+        <v>281929</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0862298654193539</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07637703912335936</v>
+        <v>0.07586492544282016</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09698852846799041</v>
+        <v>0.09659661522117677</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>77790</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>60401</v>
+        <v>60365</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>97992</v>
+        <v>95575</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04098810909960945</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03182557001053801</v>
+        <v>0.031806835557221</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05163220830417471</v>
+        <v>0.05035894941055486</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2765,19 +2765,19 @@
         <v>14014</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8428</v>
+        <v>7992</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24456</v>
+        <v>23523</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0137293997837261</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008256866811112909</v>
+        <v>0.007829301906188711</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02395930156050871</v>
+        <v>0.02304532362007075</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>85</v>
@@ -2786,19 +2786,19 @@
         <v>91805</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>74233</v>
+        <v>74177</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>111321</v>
+        <v>112689</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03145476110992759</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02543422741908395</v>
+        <v>0.02541510825738958</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03814163940286068</v>
+        <v>0.03861037984171933</v>
       </c>
     </row>
     <row r="33">
@@ -3131,19 +3131,19 @@
         <v>43951</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33876</v>
+        <v>34107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52802</v>
+        <v>53352</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5367775233867075</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4137295191439629</v>
+        <v>0.4165540483577476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6448726958298329</v>
+        <v>0.6515831425598192</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -3152,19 +3152,19 @@
         <v>70162</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60635</v>
+        <v>61355</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76892</v>
+        <v>76809</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7990995824959887</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6905916065352291</v>
+        <v>0.6987916892418156</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8757558276344174</v>
+        <v>0.8748091596595527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -3173,19 +3173,19 @@
         <v>114113</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101263</v>
+        <v>101070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126438</v>
+        <v>126471</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6725150634857864</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5967855265637118</v>
+        <v>0.5956460342238667</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7451504617446648</v>
+        <v>0.7453427467559166</v>
       </c>
     </row>
     <row r="5">
@@ -3202,19 +3202,19 @@
         <v>22822</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14718</v>
+        <v>15035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32691</v>
+        <v>32584</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2787269534368679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1797479962693181</v>
+        <v>0.1836239513529448</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3992519342014852</v>
+        <v>0.3979515656454296</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -3223,19 +3223,19 @@
         <v>8147</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3993</v>
+        <v>4051</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15417</v>
+        <v>15019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09278709477650694</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04547856929594295</v>
+        <v>0.04613581151592339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1755899425427417</v>
+        <v>0.1710590207179087</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -3244,19 +3244,19 @@
         <v>30969</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21916</v>
+        <v>20994</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41732</v>
+        <v>42192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1825130890496055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1291587368696515</v>
+        <v>0.1237262637958469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2459450441165887</v>
+        <v>0.2486525792139641</v>
       </c>
     </row>
     <row r="6">
@@ -3273,19 +3273,19 @@
         <v>7851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3568</v>
+        <v>2998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14318</v>
+        <v>13924</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09587856649362615</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04357127326114824</v>
+        <v>0.03661498499082431</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1748655116231702</v>
+        <v>0.1700548523811745</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -3294,19 +3294,19 @@
         <v>7558</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3152</v>
+        <v>2955</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14874</v>
+        <v>14814</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08608654883096251</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03589772119502161</v>
+        <v>0.03365849670246791</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1694058189296015</v>
+        <v>0.1687238991624524</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -3315,19 +3315,19 @@
         <v>15409</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8921</v>
+        <v>9123</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24188</v>
+        <v>24244</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09081172463270974</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05257789787209396</v>
+        <v>0.05376664560753128</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1425523805267269</v>
+        <v>0.1428824634837954</v>
       </c>
     </row>
     <row r="7">
@@ -3344,19 +3344,19 @@
         <v>7256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3013</v>
+        <v>2871</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14015</v>
+        <v>13833</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08861695668279843</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03680290494785926</v>
+        <v>0.03506403394958458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.171168893744991</v>
+        <v>0.1689420155747386</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6717</v>
+        <v>5874</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02202677389654192</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07650044787886386</v>
+        <v>0.06690119133141539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -3386,19 +3386,19 @@
         <v>9190</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4605</v>
+        <v>4354</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17354</v>
+        <v>16527</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05416012283189837</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02714188279914029</v>
+        <v>0.02565914079454087</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1022727732877181</v>
+        <v>0.09740161303621998</v>
       </c>
     </row>
     <row r="8">
@@ -3490,19 +3490,19 @@
         <v>233566</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>216887</v>
+        <v>214452</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>253673</v>
+        <v>252050</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6147531353375051</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5708553519464239</v>
+        <v>0.5644441340346822</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6676762147885452</v>
+        <v>0.6634055220578464</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>206</v>
@@ -3511,19 +3511,19 @@
         <v>221710</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>207012</v>
+        <v>207664</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>235321</v>
+        <v>234900</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7998416582399152</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7468176430118024</v>
+        <v>0.7491697633642361</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.848945739859687</v>
+        <v>0.8474276323893133</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>433</v>
@@ -3532,19 +3532,19 @@
         <v>455275</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>427839</v>
+        <v>430383</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>477369</v>
+        <v>480011</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6928280709995525</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6510768064191829</v>
+        <v>0.6549477917526707</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7264502852524912</v>
+        <v>0.7304704584060131</v>
       </c>
     </row>
     <row r="10">
@@ -3561,19 +3561,19 @@
         <v>77588</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62004</v>
+        <v>63349</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>93649</v>
+        <v>94337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2042141485068671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1631964508849756</v>
+        <v>0.1667372715119357</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2464871922039183</v>
+        <v>0.2482988157963888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3582,19 +3582,19 @@
         <v>34088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24468</v>
+        <v>24324</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47236</v>
+        <v>47333</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1229773251164846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0882702592797895</v>
+        <v>0.0877500366217214</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1704085517738059</v>
+        <v>0.170758414829099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -3603,19 +3603,19 @@
         <v>111676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93465</v>
+        <v>91479</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134792</v>
+        <v>132531</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1699464388718543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.142233602697189</v>
+        <v>0.1392114526575959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2051231886258131</v>
+        <v>0.2016827687505127</v>
       </c>
     </row>
     <row r="11">
@@ -3632,19 +3632,19 @@
         <v>38192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27217</v>
+        <v>27142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51808</v>
+        <v>51972</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1005235092460577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07163673065244001</v>
+        <v>0.07143960631499027</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1363603163078776</v>
+        <v>0.136791461995254</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -3653,19 +3653,19 @@
         <v>12016</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6068</v>
+        <v>6134</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20727</v>
+        <v>20131</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04335057084477584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02189020912002507</v>
+        <v>0.02213054081800187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07477459823453933</v>
+        <v>0.07262361891629227</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -3674,19 +3674,19 @@
         <v>50209</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36149</v>
+        <v>36836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65348</v>
+        <v>65537</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07640654392971635</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05501011574742446</v>
+        <v>0.05605641771592286</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.099445277751829</v>
+        <v>0.09973215110822657</v>
       </c>
     </row>
     <row r="12">
@@ -3703,19 +3703,19 @@
         <v>30588</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19909</v>
+        <v>19896</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42430</v>
+        <v>42346</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08050920690957009</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05240100194749326</v>
+        <v>0.05236770467322998</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1116762559752069</v>
+        <v>0.1114555265440814</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3724,19 +3724,19 @@
         <v>9378</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5054</v>
+        <v>4372</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17279</v>
+        <v>16281</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03383044579882442</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01823372423289438</v>
+        <v>0.01577194949158658</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06233629457056663</v>
+        <v>0.05873425388596105</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -3745,19 +3745,19 @@
         <v>39966</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28559</v>
+        <v>28755</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>55586</v>
+        <v>55145</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06081894619887698</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04346028047646507</v>
+        <v>0.043759159635019</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08459000613825506</v>
+        <v>0.08391851605635731</v>
       </c>
     </row>
     <row r="13">
@@ -3849,19 +3849,19 @@
         <v>234012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>213169</v>
+        <v>213447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>257496</v>
+        <v>255393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.54912720645459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5002174255352116</v>
+        <v>0.5008695717204718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6042339760545623</v>
+        <v>0.5993000066961459</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -3870,19 +3870,19 @@
         <v>210138</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>194244</v>
+        <v>193975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>223966</v>
+        <v>223823</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7377935200318999</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6819884088220033</v>
+        <v>0.6810458520845337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7863407721317871</v>
+        <v>0.7858395510890221</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>428</v>
@@ -3891,19 +3891,19 @@
         <v>444151</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>417138</v>
+        <v>416244</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>470355</v>
+        <v>468261</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6247082041619617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.586714579557211</v>
+        <v>0.5854563643387216</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6615652058656469</v>
+        <v>0.6586196811753637</v>
       </c>
     </row>
     <row r="15">
@@ -3920,19 +3920,19 @@
         <v>110152</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>91270</v>
+        <v>93244</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129789</v>
+        <v>131069</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2584814649240983</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2141716071356516</v>
+        <v>0.2188051870761625</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3045614965115091</v>
+        <v>0.307564265088032</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>45</v>
@@ -3941,19 +3941,19 @@
         <v>46229</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>34898</v>
+        <v>33789</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60463</v>
+        <v>58252</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1623084847778306</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1225277117384469</v>
+        <v>0.1186320299422932</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2122842284519273</v>
+        <v>0.2045219576577491</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>150</v>
@@ -3962,19 +3962,19 @@
         <v>156381</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>134055</v>
+        <v>132760</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>177171</v>
+        <v>178520</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2199539204243877</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1885512004338245</v>
+        <v>0.1867304500825068</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2491956638846153</v>
+        <v>0.251091934274048</v>
       </c>
     </row>
     <row r="16">
@@ -3991,19 +3991,19 @@
         <v>52316</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40718</v>
+        <v>40254</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66643</v>
+        <v>68890</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1227627152220085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09554847694665336</v>
+        <v>0.0944588208246572</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1563842018296932</v>
+        <v>0.1616566486266235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4012,19 +4012,19 @@
         <v>17267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10094</v>
+        <v>9993</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27344</v>
+        <v>27680</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06062579071694978</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0354400034460161</v>
+        <v>0.03508632903408575</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09600401427199204</v>
+        <v>0.097185612960225</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -4033,19 +4033,19 @@
         <v>69583</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54335</v>
+        <v>54656</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86664</v>
+        <v>88071</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0978702441734578</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07642405759358495</v>
+        <v>0.07687548364940357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1218942323110668</v>
+        <v>0.1238742165216433</v>
       </c>
     </row>
     <row r="17">
@@ -4062,19 +4062,19 @@
         <v>29672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19949</v>
+        <v>20268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43541</v>
+        <v>41698</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06962861339930311</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04681258856328252</v>
+        <v>0.0475596555116321</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.10217176550561</v>
+        <v>0.09784705616697791</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -4083,19 +4083,19 @@
         <v>11186</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5029</v>
+        <v>5817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18955</v>
+        <v>19610</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03927220447331969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01765754893089455</v>
+        <v>0.02042269528999098</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06655042999373471</v>
+        <v>0.06884896417397644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -4104,19 +4104,19 @@
         <v>40858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29120</v>
+        <v>29502</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54925</v>
+        <v>56484</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05746763124019273</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04095730838058501</v>
+        <v>0.04149546470893489</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07725281369237944</v>
+        <v>0.07944648287288771</v>
       </c>
     </row>
     <row r="18">
@@ -4208,19 +4208,19 @@
         <v>213006</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>194032</v>
+        <v>191596</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>232368</v>
+        <v>232578</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5810287617059888</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.52927231743327</v>
+        <v>0.5226281389620365</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6338439565014099</v>
+        <v>0.6344185916976645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>157</v>
@@ -4229,19 +4229,19 @@
         <v>183506</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>170623</v>
+        <v>169845</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>195171</v>
+        <v>194870</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8184064957305085</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7609542381134207</v>
+        <v>0.7574838283828341</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8704340824110786</v>
+        <v>0.8690905336422128</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>346</v>
@@ -4250,19 +4250,19 @@
         <v>396511</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>372706</v>
+        <v>370807</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>420943</v>
+        <v>420250</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6711158517445351</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6308234518380424</v>
+        <v>0.6276097122890868</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7124684350400522</v>
+        <v>0.7112952813405099</v>
       </c>
     </row>
     <row r="20">
@@ -4279,19 +4279,19 @@
         <v>87841</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71898</v>
+        <v>71579</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106029</v>
+        <v>107840</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2396082326423498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1961192948676118</v>
+        <v>0.195251243557354</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2892209353797343</v>
+        <v>0.2941625116381862</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -4300,19 +4300,19 @@
         <v>27315</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17773</v>
+        <v>17907</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38853</v>
+        <v>38720</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1218226667070285</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07926377640236169</v>
+        <v>0.07986113944603165</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1732800213183541</v>
+        <v>0.1726844398062859</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>104</v>
@@ -4321,19 +4321,19 @@
         <v>115156</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95755</v>
+        <v>96468</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136083</v>
+        <v>138856</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1949074989056279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1620704214950718</v>
+        <v>0.1632773073365995</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2303266994714675</v>
+        <v>0.2350216090164127</v>
       </c>
     </row>
     <row r="21">
@@ -4350,19 +4350,19 @@
         <v>44636</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31897</v>
+        <v>32416</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59406</v>
+        <v>60214</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1217570365039173</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0870064068500179</v>
+        <v>0.08842289174955127</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1620453247302203</v>
+        <v>0.1642484582211552</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -4371,19 +4371,19 @@
         <v>7246</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3031</v>
+        <v>3040</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15722</v>
+        <v>16070</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03231826725944776</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01351638096030344</v>
+        <v>0.01355594734208716</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07011977701701694</v>
+        <v>0.07167112170355867</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -4392,19 +4392,19 @@
         <v>51883</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38435</v>
+        <v>37051</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>67952</v>
+        <v>66530</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08781417960129378</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0650537599825514</v>
+        <v>0.06271033357518546</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1150123765087009</v>
+        <v>0.1126054215106171</v>
       </c>
     </row>
     <row r="22">
@@ -4421,19 +4421,19 @@
         <v>21118</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12534</v>
+        <v>13008</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33233</v>
+        <v>32597</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05760596914774408</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03418963997484666</v>
+        <v>0.03548385253812109</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09065190306983609</v>
+        <v>0.08891624676366154</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4442,19 +4442,19 @@
         <v>6155</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2121</v>
+        <v>2132</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14825</v>
+        <v>15119</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0274525703030153</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00945924296466682</v>
+        <v>0.009507077435739347</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06611772690133896</v>
+        <v>0.06742918582687234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -4463,19 +4463,19 @@
         <v>27274</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17643</v>
+        <v>17997</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40608</v>
+        <v>40536</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0461624697485431</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02986225070545458</v>
+        <v>0.03046120828342773</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06873060788397181</v>
+        <v>0.06860927614760977</v>
       </c>
     </row>
     <row r="23">
@@ -4567,19 +4567,19 @@
         <v>93285</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>79499</v>
+        <v>81212</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105172</v>
+        <v>105092</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5928478679815572</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5052322330892631</v>
+        <v>0.5161178926064562</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6683911804882225</v>
+        <v>0.6678853516824643</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>45</v>
@@ -4588,19 +4588,19 @@
         <v>48872</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39699</v>
+        <v>39890</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56150</v>
+        <v>57075</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7012658856940175</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5696475409082503</v>
+        <v>0.5723905998054818</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8056943775228568</v>
+        <v>0.8189724831976687</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>131</v>
@@ -4609,19 +4609,19 @@
         <v>142156</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>125404</v>
+        <v>126979</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>157076</v>
+        <v>155718</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.626126871529945</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5523394029509966</v>
+        <v>0.5592779048291718</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6918391171042394</v>
+        <v>0.6858567181794013</v>
       </c>
     </row>
     <row r="25">
@@ -4638,19 +4638,19 @@
         <v>29708</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21025</v>
+        <v>20410</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40430</v>
+        <v>39335</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1888018222355214</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1336181895198583</v>
+        <v>0.1297115360979754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2569439112186672</v>
+        <v>0.2499846782492654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4659,19 +4659,19 @@
         <v>14176</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8181</v>
+        <v>7856</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22757</v>
+        <v>23002</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2034083830429269</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1173879612307292</v>
+        <v>0.1127300122292098</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3265465377971103</v>
+        <v>0.3300582650967345</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -4680,19 +4680,19 @@
         <v>43884</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32190</v>
+        <v>33228</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56669</v>
+        <v>57270</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1932853186062867</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1417792939834838</v>
+        <v>0.1463517268947074</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2495966984679632</v>
+        <v>0.2522431472050329</v>
       </c>
     </row>
     <row r="26">
@@ -4709,19 +4709,19 @@
         <v>23709</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15537</v>
+        <v>15516</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34339</v>
+        <v>34476</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.150677519862272</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09873941698261735</v>
+        <v>0.09860541765375792</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2182317555788574</v>
+        <v>0.2191013082140859</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -4730,19 +4730,19 @@
         <v>5323</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2093</v>
+        <v>2056</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11892</v>
+        <v>11654</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0763851345983808</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03003799677056174</v>
+        <v>0.02950387121409415</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1706372096396039</v>
+        <v>0.1672271945830459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -4751,19 +4751,19 @@
         <v>29033</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20186</v>
+        <v>19343</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40544</v>
+        <v>41328</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1278734084702678</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08890998393476444</v>
+        <v>0.08519804548181927</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1785749187646834</v>
+        <v>0.1820276303701782</v>
       </c>
     </row>
     <row r="27">
@@ -4780,19 +4780,19 @@
         <v>10648</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5439</v>
+        <v>5352</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18232</v>
+        <v>18263</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06767278992064944</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03456828739889749</v>
+        <v>0.03401402396659726</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1158678888378863</v>
+        <v>0.1160657089388258</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7533</v>
+        <v>6473</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0189405966646748</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1080941731093674</v>
+        <v>0.09288267938580774</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -4822,19 +4822,19 @@
         <v>11968</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>7051</v>
+        <v>6406</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>20714</v>
+        <v>20153</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05271440139350048</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03105795569304422</v>
+        <v>0.02821398892667173</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09123672194453585</v>
+        <v>0.08876456061854163</v>
       </c>
     </row>
     <row r="28">
@@ -4926,19 +4926,19 @@
         <v>817820</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>781139</v>
+        <v>779142</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>855710</v>
+        <v>853512</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5792259402452692</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5532465650161104</v>
+        <v>0.5518325780863512</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6060618795632157</v>
+        <v>0.6045053243847108</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>677</v>
@@ -4947,19 +4947,19 @@
         <v>734387</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>708038</v>
+        <v>708398</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>760705</v>
+        <v>760736</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7781776981669671</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7502576896212807</v>
+        <v>0.7506383582225181</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8060650675893338</v>
+        <v>0.8060975911998107</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1449</v>
@@ -4968,19 +4968,19 @@
         <v>1552207</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1502176</v>
+        <v>1499981</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1597102</v>
+        <v>1596789</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6589307208693514</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6376921649137423</v>
+        <v>0.6367602944711374</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6779893616610488</v>
+        <v>0.6778563164463652</v>
       </c>
     </row>
     <row r="30">
@@ -4997,19 +4997,19 @@
         <v>328111</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>296291</v>
+        <v>292996</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>362876</v>
+        <v>361687</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2323868984207391</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2098497336887782</v>
+        <v>0.2075164809046039</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2570095697982635</v>
+        <v>0.2561668088415183</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>121</v>
@@ -5018,19 +5018,19 @@
         <v>129955</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108303</v>
+        <v>110677</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152840</v>
+        <v>152758</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.137704014216933</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1147611296027874</v>
+        <v>0.1172767085307881</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1619535026867021</v>
+        <v>0.1618665926155299</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>429</v>
@@ -5039,19 +5039,19 @@
         <v>458066</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>422914</v>
+        <v>420561</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>500939</v>
+        <v>498066</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1944546951914019</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.179532207990019</v>
+        <v>0.178533356635416</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.212654821946939</v>
+        <v>0.2114352193036399</v>
       </c>
     </row>
     <row r="31">
@@ -5068,19 +5068,19 @@
         <v>166704</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>142685</v>
+        <v>141669</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>192651</v>
+        <v>194386</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1180691173364091</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1010576676187896</v>
+        <v>0.1003377763624784</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1364464617072149</v>
+        <v>0.1376749806739304</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>45</v>
@@ -5089,19 +5089,19 @@
         <v>49412</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36948</v>
+        <v>36274</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>63711</v>
+        <v>64792</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05235856498961304</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03915141593665521</v>
+        <v>0.03843684700057747</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06751051830181692</v>
+        <v>0.06865502491095472</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>200</v>
@@ -5110,19 +5110,19 @@
         <v>216116</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>187705</v>
+        <v>190896</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>244803</v>
+        <v>249060</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09174391561816156</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07968324052467012</v>
+        <v>0.08103763302785645</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.103921758209519</v>
+        <v>0.1057291863160225</v>
       </c>
     </row>
     <row r="32">
@@ -5139,19 +5139,19 @@
         <v>99283</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>81863</v>
+        <v>80539</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>124077</v>
+        <v>121309</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07031804399758258</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0579803171931563</v>
+        <v>0.05704222126677044</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08787811476618466</v>
+        <v>0.08591758531404488</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -5160,19 +5160,19 @@
         <v>29973</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20475</v>
+        <v>19511</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42521</v>
+        <v>42393</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03175972262648678</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02169582378377781</v>
+        <v>0.02067404618698909</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0450566214026303</v>
+        <v>0.04492107851551051</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>118</v>
@@ -5181,19 +5181,19 @@
         <v>129256</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>108231</v>
+        <v>107092</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>153643</v>
+        <v>156664</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0548706683210851</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04594535562205481</v>
+        <v>0.04546173736435234</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06522328323952283</v>
+        <v>0.0665056919102142</v>
       </c>
     </row>
     <row r="33">
@@ -5526,19 +5526,19 @@
         <v>44751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35661</v>
+        <v>36315</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52125</v>
+        <v>53766</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5656938907675002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4507783709624406</v>
+        <v>0.4590509598456696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6588984711445549</v>
+        <v>0.6796383891092854</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -5547,19 +5547,19 @@
         <v>70023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60824</v>
+        <v>59121</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77349</v>
+        <v>77133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7623210387259292</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6621791915792066</v>
+        <v>0.6436299234683049</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8420825835911159</v>
+        <v>0.8397310742824158</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -5568,19 +5568,19 @@
         <v>114774</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102009</v>
+        <v>100660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128295</v>
+        <v>125935</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6713368898616849</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.596670067603508</v>
+        <v>0.5887775788034804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.750419337129592</v>
+        <v>0.7366191485293716</v>
       </c>
     </row>
     <row r="5">
@@ -5597,19 +5597,19 @@
         <v>18825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12374</v>
+        <v>12241</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28129</v>
+        <v>27760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2379601273070883</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1564206249344218</v>
+        <v>0.1547329197028437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3555716178571625</v>
+        <v>0.350902788262894</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -5618,19 +5618,19 @@
         <v>12039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6571</v>
+        <v>6851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19314</v>
+        <v>21390</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.131069800770004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07153389605633755</v>
+        <v>0.07458783634572796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2102690500793458</v>
+        <v>0.2328629251487633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -5639,19 +5639,19 @@
         <v>30864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21055</v>
+        <v>20744</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41830</v>
+        <v>42139</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.180530546566174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1231536787910521</v>
+        <v>0.1213374466029288</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2446695491168429</v>
+        <v>0.2464809672417333</v>
       </c>
     </row>
     <row r="6">
@@ -5668,19 +5668,19 @@
         <v>11327</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6025</v>
+        <v>5890</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19086</v>
+        <v>19450</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1431842178448654</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.076155918381166</v>
+        <v>0.07445289843124195</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2412625220165483</v>
+        <v>0.2458680669866333</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -5689,19 +5689,19 @@
         <v>7930</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3817</v>
+        <v>3553</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15499</v>
+        <v>15575</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08633135988869907</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04155993649855896</v>
+        <v>0.03868265581792581</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1687351768872721</v>
+        <v>0.1695560013849852</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -5710,19 +5710,19 @@
         <v>19257</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11629</v>
+        <v>11444</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28867</v>
+        <v>29410</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1126385557431351</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06801915327893665</v>
+        <v>0.06693705426490507</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1688486403587122</v>
+        <v>0.1720261649720894</v>
       </c>
     </row>
     <row r="7">
@@ -5739,19 +5739,19 @@
         <v>4206</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9921</v>
+        <v>9803</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05316176408054605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01250057322853818</v>
+        <v>0.01244410568540357</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1254099178724584</v>
+        <v>0.1239205765138936</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6506</v>
+        <v>5740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02027780061536771</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07083148888937904</v>
+        <v>0.06249362617808298</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -5781,19 +5781,19 @@
         <v>6068</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2717</v>
+        <v>2357</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13311</v>
+        <v>11869</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03549400782900592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01589117599555095</v>
+        <v>0.0137846230408482</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07786013728691175</v>
+        <v>0.06942532655518957</v>
       </c>
     </row>
     <row r="8">
@@ -5885,19 +5885,19 @@
         <v>189735</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>171824</v>
+        <v>171114</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>209490</v>
+        <v>208412</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5527944234155969</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.500610394293581</v>
+        <v>0.498544492696229</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6103535833412799</v>
+        <v>0.6072107302351502</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>212</v>
@@ -5906,19 +5906,19 @@
         <v>206835</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>192973</v>
+        <v>191752</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>220641</v>
+        <v>220215</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7556561494936934</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7050114581406972</v>
+        <v>0.7005518172668601</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8060942546423635</v>
+        <v>0.8045373522507151</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>394</v>
@@ -5927,19 +5927,19 @@
         <v>396570</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>373402</v>
+        <v>374162</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>419212</v>
+        <v>421341</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6427969168926976</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6052442182786709</v>
+        <v>0.6064761246891801</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6794962864122669</v>
+        <v>0.6829466436377648</v>
       </c>
     </row>
     <row r="10">
@@ -5956,19 +5956,19 @@
         <v>95579</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80234</v>
+        <v>79814</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112989</v>
+        <v>115133</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2784698861885515</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2337643996535076</v>
+        <v>0.2325380123845317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3291948881641781</v>
+        <v>0.3354406895619657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -5977,19 +5977,19 @@
         <v>48967</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37193</v>
+        <v>38306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61495</v>
+        <v>62334</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1788965831829802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1358826097353357</v>
+        <v>0.1399473311616918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2246668624585798</v>
+        <v>0.2277332914299937</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -5998,19 +5998,19 @@
         <v>144546</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122573</v>
+        <v>123639</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165497</v>
+        <v>167574</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2342927724100647</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.198677878980438</v>
+        <v>0.2004050004135435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2682526678719589</v>
+        <v>0.2716196044992658</v>
       </c>
     </row>
     <row r="11">
@@ -6027,19 +6027,19 @@
         <v>41079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30211</v>
+        <v>29402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54303</v>
+        <v>55671</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1196856573815508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08802029084477303</v>
+        <v>0.08566287598391746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1582136708604658</v>
+        <v>0.1621972100292581</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -6048,19 +6048,19 @@
         <v>15046</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8540</v>
+        <v>9243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23063</v>
+        <v>23901</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05496919443925675</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03120043423749268</v>
+        <v>0.03377034148755675</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08425843939830233</v>
+        <v>0.08731910329526735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -6069,19 +6069,19 @@
         <v>56126</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42003</v>
+        <v>43715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71091</v>
+        <v>71999</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0909732770502186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06808244949089055</v>
+        <v>0.07085767740847618</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1152308014780182</v>
+        <v>0.1167019968127415</v>
       </c>
     </row>
     <row r="12">
@@ -6098,19 +6098,19 @@
         <v>16835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9322</v>
+        <v>9994</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25232</v>
+        <v>26171</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04905003301430075</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02715934398401556</v>
+        <v>0.02911764106242524</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07351401320036019</v>
+        <v>0.07624854685058356</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6119,19 +6119,19 @@
         <v>2868</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7710</v>
+        <v>7574</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01047807288406964</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00343310219926447</v>
+        <v>0.00341703894132353</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0281675186147375</v>
+        <v>0.0276716288784362</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -6140,19 +6140,19 @@
         <v>19703</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12274</v>
+        <v>12584</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30050</v>
+        <v>29371</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03193703364701918</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0198949919145708</v>
+        <v>0.02039786498523152</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04870733955332785</v>
+        <v>0.04760745931294966</v>
       </c>
     </row>
     <row r="13">
@@ -6244,19 +6244,19 @@
         <v>264035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>241981</v>
+        <v>242117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>284175</v>
+        <v>285635</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5777829188094868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5295231233281026</v>
+        <v>0.5298207982810913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6218566375143395</v>
+        <v>0.6250510639023492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>253</v>
@@ -6265,19 +6265,19 @@
         <v>252516</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>238357</v>
+        <v>236802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>268035</v>
+        <v>265817</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7980695214609934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7533201540388428</v>
+        <v>0.7484057502346959</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8471175152270749</v>
+        <v>0.8401074916978797</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>503</v>
@@ -6286,19 +6286,19 @@
         <v>516550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>487396</v>
+        <v>490206</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>540664</v>
+        <v>542981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6679065083558061</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.630209613013631</v>
+        <v>0.6338434727896195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6990863140516886</v>
+        <v>0.7020812657320579</v>
       </c>
     </row>
     <row r="15">
@@ -6315,19 +6315,19 @@
         <v>109139</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>92506</v>
+        <v>90463</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>130063</v>
+        <v>128228</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2388279314789101</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2024295297659303</v>
+        <v>0.1979594465746133</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2846158505381396</v>
+        <v>0.280600307445831</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>36</v>
@@ -6336,19 +6336,19 @@
         <v>35811</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24946</v>
+        <v>25774</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47717</v>
+        <v>48807</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1131783814493141</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0788421803403377</v>
+        <v>0.08145733552291902</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.150809664909827</v>
+        <v>0.1542527098195718</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>139</v>
@@ -6357,19 +6357,19 @@
         <v>144950</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>126148</v>
+        <v>124545</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>169512</v>
+        <v>169175</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1874222248347273</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.163111561146251</v>
+        <v>0.1610382710405243</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2191815042927101</v>
+        <v>0.2187457557725856</v>
       </c>
     </row>
     <row r="16">
@@ -6386,19 +6386,19 @@
         <v>68330</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55489</v>
+        <v>54264</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85161</v>
+        <v>83968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1495244915191188</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1214257921969118</v>
+        <v>0.1187446414945348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1863559142818164</v>
+        <v>0.1837452438542165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -6407,19 +6407,19 @@
         <v>20074</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12793</v>
+        <v>13021</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29413</v>
+        <v>30003</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06344345577083985</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04043154961233895</v>
+        <v>0.04115217375124832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09295910693297439</v>
+        <v>0.09482503917019518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -6428,19 +6428,19 @@
         <v>88404</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70680</v>
+        <v>70996</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107097</v>
+        <v>105950</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.114307043702862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09139045818648245</v>
+        <v>0.09179911682910927</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.138477575812204</v>
+        <v>0.136995107228456</v>
       </c>
     </row>
     <row r="17">
@@ -6457,19 +6457,19 @@
         <v>15475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9036</v>
+        <v>8211</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25880</v>
+        <v>26338</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03386465819248428</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01977255998520866</v>
+        <v>0.01796794445451971</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05663231404183005</v>
+        <v>0.05763434557734184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -6478,19 +6478,19 @@
         <v>8008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3767</v>
+        <v>3545</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15158</v>
+        <v>14933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02530864131885259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01190580696967835</v>
+        <v>0.01120281991530392</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04790793316275629</v>
+        <v>0.04719513329472334</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -6499,19 +6499,19 @@
         <v>23483</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15179</v>
+        <v>15121</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35265</v>
+        <v>35305</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03036422310660462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01962629232075547</v>
+        <v>0.01955123105658262</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04559851954291112</v>
+        <v>0.04565042947344732</v>
       </c>
     </row>
     <row r="18">
@@ -6603,19 +6603,19 @@
         <v>199398</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>178747</v>
+        <v>181450</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>218127</v>
+        <v>219930</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5485189848615841</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4917103335766599</v>
+        <v>0.4991482968223911</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6000406721904874</v>
+        <v>0.6049999357540137</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>159</v>
@@ -6624,19 +6624,19 @@
         <v>175345</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>160031</v>
+        <v>160276</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>188253</v>
+        <v>188777</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7242040885730958</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6609564623896794</v>
+        <v>0.6619672158333411</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7775163712172786</v>
+        <v>0.7796799090631462</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>337</v>
@@ -6645,19 +6645,19 @@
         <v>374743</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>348274</v>
+        <v>349494</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>398910</v>
+        <v>399205</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6187537034389569</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5750490241136715</v>
+        <v>0.5770642825738602</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6586565137543376</v>
+        <v>0.6591427804747217</v>
       </c>
     </row>
     <row r="20">
@@ -6674,19 +6674,19 @@
         <v>99987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84009</v>
+        <v>82384</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119177</v>
+        <v>117008</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2750534948137515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2310985597712916</v>
+        <v>0.2266283934557808</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3278419554436402</v>
+        <v>0.321874696471029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -6695,19 +6695,19 @@
         <v>42559</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31568</v>
+        <v>31290</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54728</v>
+        <v>55383</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1757757537049148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1303820128128465</v>
+        <v>0.1292347668402664</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2260367336894312</v>
+        <v>0.2287414871490478</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -6716,19 +6716,19 @@
         <v>142547</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>122169</v>
+        <v>121928</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164532</v>
+        <v>164843</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2353646193173623</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2017179507484217</v>
+        <v>0.2013202957479859</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2716654222838377</v>
+        <v>0.2721791624490706</v>
       </c>
     </row>
     <row r="21">
@@ -6745,19 +6745,19 @@
         <v>46315</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34014</v>
+        <v>34443</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59639</v>
+        <v>61369</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1274063782234704</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09356919861421187</v>
+        <v>0.0947487074607616</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1640584955018823</v>
+        <v>0.1688198933947101</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -6766,19 +6766,19 @@
         <v>16293</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10031</v>
+        <v>9342</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26878</v>
+        <v>26171</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0672942900896413</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04142912724939657</v>
+        <v>0.03858331309085666</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1110093783567383</v>
+        <v>0.1080920894721871</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -6787,19 +6787,19 @@
         <v>62608</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>48838</v>
+        <v>48548</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81082</v>
+        <v>79108</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1033749976226968</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08063774167801349</v>
+        <v>0.08016004720276464</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1338783152068867</v>
+        <v>0.130617890276472</v>
       </c>
     </row>
     <row r="22">
@@ -6816,19 +6816,19 @@
         <v>17820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9924</v>
+        <v>10947</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27322</v>
+        <v>30108</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04902114210119395</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02729961999324755</v>
+        <v>0.03011290379497026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07516026992557133</v>
+        <v>0.08282433123329119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6837,19 +6837,19 @@
         <v>7924</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3050</v>
+        <v>3171</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16093</v>
+        <v>15435</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0327258676323481</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01259800147971201</v>
+        <v>0.01309823516992411</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06646795921186233</v>
+        <v>0.06374973074345403</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -6858,19 +6858,19 @@
         <v>25744</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16252</v>
+        <v>16838</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38043</v>
+        <v>38215</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04250667962098401</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02683505373432905</v>
+        <v>0.02780270139974132</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06281475963665065</v>
+        <v>0.06309777356907563</v>
       </c>
     </row>
     <row r="23">
@@ -6962,19 +6962,19 @@
         <v>99418</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>85192</v>
+        <v>86309</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>111912</v>
+        <v>113069</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.607717770218744</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.520756913396247</v>
+        <v>0.5275856746327768</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6840900188189618</v>
+        <v>0.6911625709981768</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -6983,19 +6983,19 @@
         <v>76468</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66240</v>
+        <v>65556</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86471</v>
+        <v>85747</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7222198790608487</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6256186842148261</v>
+        <v>0.6191637718902142</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8167009644536656</v>
+        <v>0.809862143363567</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>151</v>
@@ -7004,19 +7004,19 @@
         <v>175886</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>159388</v>
+        <v>158960</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>191447</v>
+        <v>190741</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6527071193970847</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5914861024971049</v>
+        <v>0.5898968322316391</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7104540226803938</v>
+        <v>0.7078359414519739</v>
       </c>
     </row>
     <row r="25">
@@ -7033,19 +7033,19 @@
         <v>39534</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29964</v>
+        <v>28523</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53057</v>
+        <v>52119</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2416600343848979</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1831614898315408</v>
+        <v>0.1743546826202731</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3243226396071855</v>
+        <v>0.3185890885024596</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -7054,19 +7054,19 @@
         <v>22613</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14018</v>
+        <v>14136</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32082</v>
+        <v>31977</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2135720533958103</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1323951997706515</v>
+        <v>0.1335102732972996</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3030063506543406</v>
+        <v>0.3020185081258795</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>55</v>
@@ -7075,19 +7075,19 @@
         <v>62146</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48825</v>
+        <v>48118</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78166</v>
+        <v>76593</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2306239059047211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1811874284501179</v>
+        <v>0.1785654880957281</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2900730415237485</v>
+        <v>0.284236498519997</v>
       </c>
     </row>
     <row r="26">
@@ -7104,19 +7104,19 @@
         <v>20384</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12425</v>
+        <v>12556</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30846</v>
+        <v>31342</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1245991411733964</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07595081208903262</v>
+        <v>0.07674913290524314</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1885509176153548</v>
+        <v>0.1915865547190403</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -7125,19 +7125,19 @@
         <v>3413</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9158</v>
+        <v>9065</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03223688424811106</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01035024902931378</v>
+        <v>0.01044675735748251</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08649947762816235</v>
+        <v>0.08561367596079635</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -7146,19 +7146,19 @@
         <v>23797</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14743</v>
+        <v>15523</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34541</v>
+        <v>36142</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08830882416760787</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05471115370502379</v>
+        <v>0.05760482994238862</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1281822384566198</v>
+        <v>0.1341238684116238</v>
       </c>
     </row>
     <row r="27">
@@ -7175,19 +7175,19 @@
         <v>4257</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9811</v>
+        <v>10560</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02602305422296173</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.006688448415927279</v>
+        <v>0.006604834517151931</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0599693360510723</v>
+        <v>0.06454768235949311</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -7196,19 +7196,19 @@
         <v>3385</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9138</v>
+        <v>8057</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0319711832952299</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01035821014087337</v>
+        <v>0.01023570770132104</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08630325974033376</v>
+        <v>0.07610060713505476</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7</v>
@@ -7217,19 +7217,19 @@
         <v>7642</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>14669</v>
+        <v>15131</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02836015053058632</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01206605494232062</v>
+        <v>0.01207626152828351</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05443735200256097</v>
+        <v>0.05615145815072847</v>
       </c>
     </row>
     <row r="28">
@@ -7321,19 +7321,19 @@
         <v>797337</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>760401</v>
+        <v>758854</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>834411</v>
+        <v>833544</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.566922772090702</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5406603052587989</v>
+        <v>0.539560363286518</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5932828649916524</v>
+        <v>0.5926666660534197</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>760</v>
@@ -7342,19 +7342,19 @@
         <v>781187</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>752350</v>
+        <v>753146</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>806771</v>
+        <v>805726</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.758449152424634</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7304517677424794</v>
+        <v>0.7312250960584611</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7832891482783819</v>
+        <v>0.7822738678128116</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1499</v>
@@ -7363,19 +7363,19 @@
         <v>1578524</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1531539</v>
+        <v>1527272</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1625329</v>
+        <v>1625766</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6478895329100011</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6286051132139259</v>
+        <v>0.6268536597537597</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6671001469411617</v>
+        <v>0.6672795819769239</v>
       </c>
     </row>
     <row r="30">
@@ -7392,19 +7392,19 @@
         <v>363064</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>331499</v>
+        <v>330153</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>399367</v>
+        <v>400564</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2581460910823068</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2357022406331011</v>
+        <v>0.2347452210737601</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2839576480223507</v>
+        <v>0.2848092125424699</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>161</v>
@@ -7413,19 +7413,19 @@
         <v>161989</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>138492</v>
+        <v>140006</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>186475</v>
+        <v>185724</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.157273704989196</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1344611400440519</v>
+        <v>0.1359311466419801</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1810474400972079</v>
+        <v>0.1803185916650372</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>499</v>
@@ -7434,19 +7434,19 @@
         <v>525053</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>487489</v>
+        <v>485949</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>566843</v>
+        <v>565574</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2155028252103525</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2000850306039695</v>
+        <v>0.1994530207965113</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2326551358305967</v>
+        <v>0.2321341688246103</v>
       </c>
     </row>
     <row r="31">
@@ -7463,19 +7463,19 @@
         <v>187435</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>164040</v>
+        <v>161232</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>215492</v>
+        <v>214086</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1332697904329911</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.11663547075981</v>
+        <v>0.1146392273976972</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1532193815736496</v>
+        <v>0.1522196999296557</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>62</v>
@@ -7484,19 +7484,19 @@
         <v>62757</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>47934</v>
+        <v>49064</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>79126</v>
+        <v>79716</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06092988832053494</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04653871159743203</v>
+        <v>0.04763555727058832</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07682278196128575</v>
+        <v>0.07739622880557216</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>239</v>
@@ -7505,19 +7505,19 @@
         <v>250191</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>220100</v>
+        <v>220510</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>281381</v>
+        <v>281288</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1026884807365478</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09033785145722881</v>
+        <v>0.09050631846747033</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1154899042466672</v>
+        <v>0.1154516873972947</v>
       </c>
     </row>
     <row r="32">
@@ -7534,19 +7534,19 @@
         <v>58594</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44165</v>
+        <v>45972</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>74231</v>
+        <v>75539</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04166134639400017</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03140237870206557</v>
+        <v>0.03268711574909307</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05277960784142048</v>
+        <v>0.05370984263943229</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -7555,19 +7555,19 @@
         <v>24047</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15101</v>
+        <v>15167</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36187</v>
+        <v>36153</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02334725426563506</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01466170973358546</v>
+        <v>0.01472602187351577</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0351333464930337</v>
+        <v>0.03510076842678707</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>77</v>
@@ -7576,19 +7576,19 @@
         <v>82641</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65548</v>
+        <v>65947</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>103627</v>
+        <v>101927</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03391916114309853</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02690353657290774</v>
+        <v>0.02706735261498006</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04253264352671435</v>
+        <v>0.04183493384516765</v>
       </c>
     </row>
     <row r="33">
@@ -7921,19 +7921,19 @@
         <v>23929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13535</v>
+        <v>12711</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34491</v>
+        <v>34928</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4996762314025461</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2826273789180536</v>
+        <v>0.2654291763090778</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7202271349820547</v>
+        <v>0.7293523214487918</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -7942,19 +7942,19 @@
         <v>28414</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19370</v>
+        <v>19530</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35515</v>
+        <v>36382</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6224410489464236</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4243323977582452</v>
+        <v>0.4278318928069208</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7780027905548725</v>
+        <v>0.7970031304107876</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -7963,19 +7963,19 @@
         <v>52343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38785</v>
+        <v>38392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66204</v>
+        <v>64815</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5595892336109484</v>
+        <v>0.5595892336109483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4146457546140941</v>
+        <v>0.4104447344248099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.707781110708846</v>
+        <v>0.6929248144819941</v>
       </c>
     </row>
     <row r="5">
@@ -7992,19 +7992,19 @@
         <v>14556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6284</v>
+        <v>5896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25673</v>
+        <v>25037</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3039512518595014</v>
+        <v>0.3039512518595013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1312222919046121</v>
+        <v>0.1231103243521916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5360942204887162</v>
+        <v>0.5228181851972841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -8013,19 +8013,19 @@
         <v>14228</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7880</v>
+        <v>7134</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23045</v>
+        <v>22836</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3116894189956357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1726169219878739</v>
+        <v>0.1562805653410684</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5048397076871453</v>
+        <v>0.5002616501410371</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -8034,19 +8034,19 @@
         <v>28784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16945</v>
+        <v>18096</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42194</v>
+        <v>42355</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3077277151328696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1811570544920862</v>
+        <v>0.1934584692066307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4510925241065205</v>
+        <v>0.4528058493220729</v>
       </c>
     </row>
     <row r="6">
@@ -8063,19 +8063,19 @@
         <v>7558</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1485</v>
+        <v>1444</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20524</v>
+        <v>23123</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1578148829560933</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03100743041509797</v>
+        <v>0.03014545186887</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4285667328475629</v>
+        <v>0.4828379852275561</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8294</v>
+        <v>7089</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02900172776675086</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1816876077122503</v>
+        <v>0.1552909916208232</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -8105,19 +8105,19 @@
         <v>8881</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2788</v>
+        <v>2807</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23015</v>
+        <v>22509</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09495010617611718</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02980315523709672</v>
+        <v>0.03001037321325363</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2460514421077241</v>
+        <v>0.2406371872105738</v>
       </c>
     </row>
     <row r="7">
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10732</v>
+        <v>10063</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03855763378185914</v>
+        <v>0.03855763378185913</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2241022619169587</v>
+        <v>0.2101222553186755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8596</v>
+        <v>8301</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03686780429119008</v>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1883056690615487</v>
+        <v>0.1818488444339041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11123</v>
+        <v>12783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0377329450800648</v>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1189115975284541</v>
+        <v>0.1366632366259223</v>
       </c>
     </row>
     <row r="8">
@@ -8280,19 +8280,19 @@
         <v>102357</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>83881</v>
+        <v>85246</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>121032</v>
+        <v>121303</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5155488593791169</v>
+        <v>0.5155488593791171</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4224888246465165</v>
+        <v>0.4293666071461336</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6096154113687527</v>
+        <v>0.6109775495256066</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>114</v>
@@ -8301,19 +8301,19 @@
         <v>118380</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>105711</v>
+        <v>104891</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>128998</v>
+        <v>128628</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7411921195472958</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6618669751048009</v>
+        <v>0.6567369979681721</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8076734755930342</v>
+        <v>0.8053553896829186</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>176</v>
@@ -8322,19 +8322,19 @@
         <v>220736</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>197944</v>
+        <v>197024</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>242954</v>
+        <v>241692</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.6161443833144956</v>
+        <v>0.6161443833144955</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5525242182906787</v>
+        <v>0.5499560364885383</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6781605771642715</v>
+        <v>0.6746375492705994</v>
       </c>
     </row>
     <row r="10">
@@ -8351,19 +8351,19 @@
         <v>59134</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44104</v>
+        <v>44689</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75418</v>
+        <v>78252</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.297847413692245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2221430326353609</v>
+        <v>0.2250903251485669</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3798648281952488</v>
+        <v>0.3941375162997385</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -8372,19 +8372,19 @@
         <v>31081</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22593</v>
+        <v>22045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43304</v>
+        <v>42405</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1946030014682369</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1414549988167272</v>
+        <v>0.1380277787003993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2711308674921094</v>
+        <v>0.265500071578751</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -8393,19 +8393,19 @@
         <v>90215</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71705</v>
+        <v>72285</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109915</v>
+        <v>109427</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2518193349748335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2001501570117626</v>
+        <v>0.2017706755659473</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3068088093653356</v>
+        <v>0.3054457212755489</v>
       </c>
     </row>
     <row r="11">
@@ -8422,19 +8422,19 @@
         <v>31529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17780</v>
+        <v>19362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48777</v>
+        <v>48113</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1588074221305953</v>
+        <v>0.1588074221305954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08955493249914077</v>
+        <v>0.09752192328704143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2456798752758758</v>
+        <v>0.2423343456577417</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8525</v>
+        <v>8152</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01467570075214772</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05337547606390542</v>
+        <v>0.05103950926354554</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -8464,19 +8464,19 @@
         <v>33873</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20834</v>
+        <v>20634</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50903</v>
+        <v>50450</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.0945510999299394</v>
+        <v>0.09455109992993939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05815382246159082</v>
+        <v>0.05759522821261805</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1420850817626431</v>
+        <v>0.1408216150813617</v>
       </c>
     </row>
     <row r="12">
@@ -8496,16 +8496,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18383</v>
+        <v>19351</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02779630479804258</v>
+        <v>0.02779630479804259</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09259019746076569</v>
+        <v>0.09746736250451633</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -8514,19 +8514,19 @@
         <v>7911</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3090</v>
+        <v>3405</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17307</v>
+        <v>17143</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04952917823231961</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01934435313505356</v>
+        <v>0.02131997429903008</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1083594945617727</v>
+        <v>0.1073364303458607</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -8535,19 +8535,19 @@
         <v>13429</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5715</v>
+        <v>6164</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28707</v>
+        <v>27657</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03748518178073156</v>
+        <v>0.03748518178073155</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01595366423420063</v>
+        <v>0.0172060838453003</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08013106833792745</v>
+        <v>0.0772005231242416</v>
       </c>
     </row>
     <row r="13">
@@ -8639,19 +8639,19 @@
         <v>169943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152735</v>
+        <v>151297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187047</v>
+        <v>186572</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.619769573956524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5570149640486255</v>
+        <v>0.5517708849486096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6821467915877911</v>
+        <v>0.6804145434590287</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>177</v>
@@ -8660,19 +8660,19 @@
         <v>127903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117221</v>
+        <v>117859</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137632</v>
+        <v>138087</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7154554351849114</v>
+        <v>0.7154554351849113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6557061641175553</v>
+        <v>0.6592712073171884</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7698782144129996</v>
+        <v>0.7724242407944434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>321</v>
@@ -8681,19 +8681,19 @@
         <v>297845</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>278883</v>
+        <v>277853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>318334</v>
+        <v>315568</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6575330919764472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6156706826845376</v>
+        <v>0.6133978690943006</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7027639275111736</v>
+        <v>0.6966579330680325</v>
       </c>
     </row>
     <row r="15">
@@ -8710,19 +8710,19 @@
         <v>73422</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>58478</v>
+        <v>58171</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>89622</v>
+        <v>89197</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2677634157752957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2132657350891008</v>
+        <v>0.2121472334517861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.326844460707224</v>
+        <v>0.3252972557063092</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -8731,19 +8731,19 @@
         <v>30459</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22766</v>
+        <v>22260</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40043</v>
+        <v>39530</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.170380100390279</v>
+        <v>0.1703801003902789</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.127346607816019</v>
+        <v>0.1245149229197138</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2239877495536537</v>
+        <v>0.2211214952592083</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>107</v>
@@ -8752,19 +8752,19 @@
         <v>103881</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>87839</v>
+        <v>87033</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>120712</v>
+        <v>123097</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2293299780848074</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1939160420454422</v>
+        <v>0.1921360656848561</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2664887381983037</v>
+        <v>0.271753898801311</v>
       </c>
     </row>
     <row r="16">
@@ -8781,19 +8781,19 @@
         <v>23682</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15257</v>
+        <v>14967</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35064</v>
+        <v>34278</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08636700515652056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05564292690120894</v>
+        <v>0.05458266147831171</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1278746959836042</v>
+        <v>0.1250078496106824</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -8802,19 +8802,19 @@
         <v>9229</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4836</v>
+        <v>5175</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16374</v>
+        <v>15250</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05162289714607161</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02705051528266272</v>
+        <v>0.02894993734217107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09159294548044349</v>
+        <v>0.08530290311684476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -8823,19 +8823,19 @@
         <v>32911</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22616</v>
+        <v>23002</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45908</v>
+        <v>44162</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07265484609670859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04992707134098417</v>
+        <v>0.05078045146805447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1013470570744725</v>
+        <v>0.09749397730907589</v>
       </c>
     </row>
     <row r="17">
@@ -8852,19 +8852,19 @@
         <v>7157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2537</v>
+        <v>2433</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15081</v>
+        <v>14754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0261000051116598</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009253833869406662</v>
+        <v>0.008872000236976506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05499899978447671</v>
+        <v>0.05380655418905143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -8873,19 +8873,19 @@
         <v>11181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6196</v>
+        <v>6357</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17353</v>
+        <v>17676</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06254156727873807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03465741519379156</v>
+        <v>0.03555753408227997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09706933037506872</v>
+        <v>0.09887761529482648</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -8894,19 +8894,19 @@
         <v>18337</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11261</v>
+        <v>11612</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28043</v>
+        <v>28898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04048208384203692</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0248605519461382</v>
+        <v>0.02563550597192651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06190791416478311</v>
+        <v>0.06379705052863764</v>
       </c>
     </row>
     <row r="18">
@@ -8998,19 +8998,19 @@
         <v>175403</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158527</v>
+        <v>158595</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>191418</v>
+        <v>191065</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6130512178398517</v>
+        <v>0.6130512178398516</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5540699562920162</v>
+        <v>0.5543068576712276</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6690263322780556</v>
+        <v>0.6677926342221214</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>253</v>
@@ -9019,19 +9019,19 @@
         <v>161232</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>149791</v>
+        <v>150373</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>171723</v>
+        <v>171637</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7198221088993741</v>
+        <v>0.7198221088993743</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.66874345245259</v>
+        <v>0.6713442768562708</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7666604646083569</v>
+        <v>0.7662764536814582</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>415</v>
@@ -9040,19 +9040,19 @@
         <v>336634</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>317593</v>
+        <v>314723</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>357332</v>
+        <v>355486</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6599347601690212</v>
+        <v>0.659934760169021</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6226061079788816</v>
+        <v>0.616980198935821</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7005110782197745</v>
+        <v>0.6968924119086206</v>
       </c>
     </row>
     <row r="20">
@@ -9069,19 +9069,19 @@
         <v>81047</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66091</v>
+        <v>65843</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95706</v>
+        <v>95997</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2832691978691789</v>
+        <v>0.2832691978691788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2309945439999168</v>
+        <v>0.2301269840395974</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3345032658883557</v>
+        <v>0.3355209408537613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -9090,19 +9090,19 @@
         <v>43642</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34557</v>
+        <v>34307</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53061</v>
+        <v>52440</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1948423426335548</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1542809501651647</v>
+        <v>0.1531647812165489</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2368928659883735</v>
+        <v>0.2341191497548972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>147</v>
@@ -9111,19 +9111,19 @@
         <v>124690</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105288</v>
+        <v>106686</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>142101</v>
+        <v>142767</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2444405979639524</v>
+        <v>0.2444405979639523</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2064059022459464</v>
+        <v>0.2091466314649016</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.278574049277646</v>
+        <v>0.2798787744316094</v>
       </c>
     </row>
     <row r="21">
@@ -9140,19 +9140,19 @@
         <v>20510</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13494</v>
+        <v>13040</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31009</v>
+        <v>29455</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07168446959502534</v>
+        <v>0.07168446959502532</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04716303599636413</v>
+        <v>0.04557664128105213</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1083798612230852</v>
+        <v>0.1029491588384525</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -9161,19 +9161,19 @@
         <v>12149</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7349</v>
+        <v>7512</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18049</v>
+        <v>18861</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.05423967038462858</v>
+        <v>0.0542396703846286</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03280834238974956</v>
+        <v>0.03353671523458633</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.080579938082569</v>
+        <v>0.08420342997788255</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -9182,19 +9182,19 @@
         <v>32659</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23551</v>
+        <v>23960</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43473</v>
+        <v>44480</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06402438570803642</v>
+        <v>0.06402438570803641</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04616922585820542</v>
+        <v>0.04697133840936757</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08522382862644264</v>
+        <v>0.08719780229449169</v>
       </c>
     </row>
     <row r="22">
@@ -9211,19 +9211,19 @@
         <v>9154</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4111</v>
+        <v>4734</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16922</v>
+        <v>17871</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03199511469594422</v>
+        <v>0.03199511469594421</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01436694306571529</v>
+        <v>0.01654658200008404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05914261857368526</v>
+        <v>0.0624610691936349</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -9232,19 +9232,19 @@
         <v>6965</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3528</v>
+        <v>3501</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11975</v>
+        <v>11864</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03109587808244241</v>
+        <v>0.03109587808244242</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01574960313641841</v>
+        <v>0.01562927229008121</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05346096872735599</v>
+        <v>0.05296844839862685</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -9253,19 +9253,19 @@
         <v>16119</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9957</v>
+        <v>9643</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25661</v>
+        <v>25152</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0316002561589901</v>
+        <v>0.03160025615899009</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01951969420276978</v>
+        <v>0.01890310799933967</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05030614562273997</v>
+        <v>0.04930784588196228</v>
       </c>
     </row>
     <row r="23">
@@ -9357,19 +9357,19 @@
         <v>100377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>89396</v>
+        <v>88001</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112508</v>
+        <v>110788</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6255272928081552</v>
+        <v>0.6255272928081553</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5570941118201059</v>
+        <v>0.5484033609993358</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7011258923184299</v>
+        <v>0.6904058169035423</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>123</v>
@@ -9378,19 +9378,19 @@
         <v>73886</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66204</v>
+        <v>67264</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80740</v>
+        <v>80635</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7281345140363705</v>
+        <v>0.7281345140363704</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6524335637396421</v>
+        <v>0.6628797732190251</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7956821406720127</v>
+        <v>0.7946457934649995</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>226</v>
@@ -9399,19 +9399,19 @@
         <v>174263</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>161232</v>
+        <v>160539</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>187407</v>
+        <v>187994</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6652761553351156</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.615527663165888</v>
+        <v>0.6128840837779739</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7154567364249355</v>
+        <v>0.7176951733161293</v>
       </c>
     </row>
     <row r="25">
@@ -9428,19 +9428,19 @@
         <v>38405</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29743</v>
+        <v>29147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49526</v>
+        <v>49188</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2393336403140802</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1853501612577628</v>
+        <v>0.1816389020070517</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3086349847015818</v>
+        <v>0.3065296890012164</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -9449,19 +9449,19 @@
         <v>21951</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15849</v>
+        <v>15719</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28965</v>
+        <v>28447</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2163258256908286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1561855664976719</v>
+        <v>0.1549111011427032</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2854416938087294</v>
+        <v>0.2803365726586429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -9470,19 +9470,19 @@
         <v>60357</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49192</v>
+        <v>48724</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73018</v>
+        <v>72044</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2304206763963522</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1877982192887363</v>
+        <v>0.1860130308776649</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2787581204247575</v>
+        <v>0.2750385167494879</v>
       </c>
     </row>
     <row r="26">
@@ -9499,19 +9499,19 @@
         <v>13752</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8048</v>
+        <v>7344</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21995</v>
+        <v>21147</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08569708623941974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05015445961857325</v>
+        <v>0.0457634689165854</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1370704291477973</v>
+        <v>0.1317851158343574</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -9520,19 +9520,19 @@
         <v>3246</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1221</v>
+        <v>1233</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6765</v>
+        <v>7112</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03198708447992842</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01203101561312768</v>
+        <v>0.0121500443686327</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06666919623241582</v>
+        <v>0.07008877444551366</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -9541,19 +9541,19 @@
         <v>16997</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10460</v>
+        <v>10640</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25125</v>
+        <v>25152</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0648904466023085</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03993255722449533</v>
+        <v>0.04061973661591764</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09591883483321194</v>
+        <v>0.09602325679160165</v>
       </c>
     </row>
     <row r="27">
@@ -9570,19 +9570,19 @@
         <v>7934</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3889</v>
+        <v>3600</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14729</v>
+        <v>14279</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04944198063834485</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02423395320001923</v>
+        <v>0.02243543733377677</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09179001428490734</v>
+        <v>0.08898126772774158</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -9591,19 +9591,19 @@
         <v>2390</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>664</v>
+        <v>553</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5965</v>
+        <v>5761</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02355257579287254</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.006539295363221643</v>
+        <v>0.005446904743357781</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05878329741828789</v>
+        <v>0.05677274872089044</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>12</v>
@@ -9612,19 +9612,19 @@
         <v>10324</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5522</v>
+        <v>5300</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17084</v>
+        <v>17293</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03941272166622365</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02108121041592373</v>
+        <v>0.02023522688016121</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06522173952371171</v>
+        <v>0.06602011086412589</v>
       </c>
     </row>
     <row r="28">
@@ -9716,19 +9716,19 @@
         <v>572007</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>541287</v>
+        <v>535339</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>610773</v>
+        <v>604436</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5913980969326696</v>
+        <v>0.5913980969326699</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5596364274101434</v>
+        <v>0.5534866930422816</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6314777881696241</v>
+        <v>0.6249256543375049</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>684</v>
@@ -9737,19 +9737,19 @@
         <v>509814</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>486870</v>
+        <v>485378</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>530145</v>
+        <v>528459</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7184559509023551</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6861219560234145</v>
+        <v>0.6840199158596914</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7471072290992724</v>
+        <v>0.7447312738720838</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1166</v>
@@ -9758,19 +9758,19 @@
         <v>1081822</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1035016</v>
+        <v>1038828</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1121480</v>
+        <v>1124532</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6451668345984733</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6172533258280065</v>
+        <v>0.6195266353945754</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6688179425694361</v>
+        <v>0.6706378724658059</v>
       </c>
     </row>
     <row r="30">
@@ -9787,19 +9787,19 @@
         <v>266564</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>234768</v>
+        <v>236253</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>297296</v>
+        <v>298018</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2756005536657175</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2427267716902938</v>
+        <v>0.244262264640348</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3073738453718233</v>
+        <v>0.3081203805379278</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>186</v>
@@ -9808,19 +9808,19 @@
         <v>141362</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>123114</v>
+        <v>125004</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>162317</v>
+        <v>162971</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1992147162150897</v>
+        <v>0.1992147162150896</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1734979211130174</v>
+        <v>0.1761617343980986</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2287456311484407</v>
+        <v>0.2296669658797596</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>420</v>
@@ -9829,19 +9829,19 @@
         <v>407926</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>372701</v>
+        <v>368819</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>443603</v>
+        <v>445663</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2432753574897655</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2222677982748163</v>
+        <v>0.2199526846384899</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2645519533564051</v>
+        <v>0.2657804520978775</v>
       </c>
     </row>
     <row r="31">
@@ -9858,19 +9858,19 @@
         <v>97031</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>76888</v>
+        <v>76396</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>122100</v>
+        <v>125602</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.10031987802882</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07949455171427385</v>
+        <v>0.07898584771585397</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1262391525766837</v>
+        <v>0.1298601153458973</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -9879,19 +9879,19 @@
         <v>28291</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20348</v>
+        <v>20525</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>38308</v>
+        <v>37738</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03986965127137051</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02867566197297168</v>
+        <v>0.02892457874384318</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05398572596372194</v>
+        <v>0.05318250309201283</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>115</v>
@@ -9900,19 +9900,19 @@
         <v>125322</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>100465</v>
+        <v>101672</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>150182</v>
+        <v>152015</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07473836312982647</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05991455074857464</v>
+        <v>0.06063407168877266</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08956389258603212</v>
+        <v>0.09065751377076364</v>
       </c>
     </row>
     <row r="32">
@@ -9929,19 +9929,19 @@
         <v>31610</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19984</v>
+        <v>20840</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48162</v>
+        <v>49616</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0326814713727929</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02066191567770048</v>
+        <v>0.02154598660697312</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04979481774516387</v>
+        <v>0.05129821255549012</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -9950,19 +9950,19 @@
         <v>30129</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20748</v>
+        <v>21366</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>40839</v>
+        <v>41844</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04245968161118482</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02923956624787384</v>
+        <v>0.03010941952729927</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05755232643724535</v>
+        <v>0.05896861237515062</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>60</v>
@@ -9971,19 +9971,19 @@
         <v>61739</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>46522</v>
+        <v>46669</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>82452</v>
+        <v>80479</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03681944478193463</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02774417445746395</v>
+        <v>0.02783227230261137</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04917201992869737</v>
+        <v>0.04799509320137704</v>
       </c>
     </row>
     <row r="33">
